--- a/players_stats/Isaiah Thomas.xlsx
+++ b/players_stats/Isaiah Thomas.xlsx
@@ -552,15 +552,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1981-82</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -574,97 +574,97 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I2" t="n">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="J2" t="n">
-        <v>2433</v>
+        <v>1656</v>
       </c>
       <c r="K2" t="n">
-        <v>453</v>
+        <v>256</v>
       </c>
       <c r="L2" t="n">
-        <v>1068</v>
+        <v>571</v>
       </c>
       <c r="M2" t="n">
-        <v>0.424</v>
+        <v>0.448</v>
       </c>
       <c r="N2" t="n">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="O2" t="n">
-        <v>59</v>
+        <v>219</v>
       </c>
       <c r="P2" t="n">
-        <v>0.288</v>
+        <v>0.379</v>
       </c>
       <c r="Q2" t="n">
-        <v>436</v>
+        <v>173</v>
       </c>
       <c r="R2" t="n">
-        <v>1009</v>
+        <v>352</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4320000000000001</v>
+        <v>0.491</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4320000000000001</v>
+        <v>0.521</v>
       </c>
       <c r="U2" t="n">
-        <v>302</v>
+        <v>154</v>
       </c>
       <c r="V2" t="n">
-        <v>429</v>
+        <v>185</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7040000000000001</v>
+        <v>0.8320000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="Y2" t="n">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="Z2" t="n">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="AA2" t="n">
-        <v>565</v>
+        <v>266</v>
       </c>
       <c r="AB2" t="n">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>299</v>
+        <v>105</v>
       </c>
       <c r="AE2" t="n">
-        <v>253</v>
+        <v>121</v>
       </c>
       <c r="AF2" t="n">
-        <v>1225</v>
+        <v>749</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 175</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 81 </t>
+          <t xml:space="preserve"> 83 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -676,15 +676,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1982-83</t>
+          <t>2012-13</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -698,97 +698,97 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I3" t="n">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="J3" t="n">
-        <v>3093</v>
+        <v>2122</v>
       </c>
       <c r="K3" t="n">
-        <v>725</v>
+        <v>366</v>
       </c>
       <c r="L3" t="n">
-        <v>1537</v>
+        <v>832</v>
       </c>
       <c r="M3" t="n">
-        <v>0.472</v>
+        <v>0.44</v>
       </c>
       <c r="N3" t="n">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="O3" t="n">
-        <v>125</v>
+        <v>321</v>
       </c>
       <c r="P3" t="n">
-        <v>0.288</v>
+        <v>0.358</v>
       </c>
       <c r="Q3" t="n">
-        <v>689</v>
+        <v>251</v>
       </c>
       <c r="R3" t="n">
-        <v>1412</v>
+        <v>511</v>
       </c>
       <c r="S3" t="n">
-        <v>0.488</v>
+        <v>0.491</v>
       </c>
       <c r="T3" t="n">
-        <v>0.483</v>
+        <v>0.509</v>
       </c>
       <c r="U3" t="n">
-        <v>368</v>
+        <v>253</v>
       </c>
       <c r="V3" t="n">
-        <v>518</v>
+        <v>287</v>
       </c>
       <c r="W3" t="n">
-        <v>0.71</v>
+        <v>0.882</v>
       </c>
       <c r="X3" t="n">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="Y3" t="n">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="Z3" t="n">
-        <v>328</v>
+        <v>161</v>
       </c>
       <c r="AA3" t="n">
-        <v>634</v>
+        <v>316</v>
       </c>
       <c r="AB3" t="n">
-        <v>199</v>
+        <v>67</v>
       </c>
       <c r="AC3" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="AD3" t="n">
-        <v>326</v>
+        <v>140</v>
       </c>
       <c r="AE3" t="n">
-        <v>318</v>
+        <v>167</v>
       </c>
       <c r="AF3" t="n">
-        <v>1854</v>
+        <v>1100</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 175</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 81 </t>
+          <t xml:space="preserve"> 83 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -800,15 +800,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1983-84</t>
+          <t>2013-14</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -822,97 +822,97 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I4" t="n">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="J4" t="n">
-        <v>3007</v>
+        <v>2497</v>
       </c>
       <c r="K4" t="n">
-        <v>669</v>
+        <v>496</v>
       </c>
       <c r="L4" t="n">
-        <v>1448</v>
+        <v>1096</v>
       </c>
       <c r="M4" t="n">
-        <v>0.462</v>
+        <v>0.453</v>
       </c>
       <c r="N4" t="n">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="O4" t="n">
-        <v>65</v>
+        <v>364</v>
       </c>
       <c r="P4" t="n">
-        <v>0.338</v>
+        <v>0.349</v>
       </c>
       <c r="Q4" t="n">
-        <v>647</v>
+        <v>369</v>
       </c>
       <c r="R4" t="n">
-        <v>1383</v>
+        <v>732</v>
       </c>
       <c r="S4" t="n">
-        <v>0.468</v>
+        <v>0.504</v>
       </c>
       <c r="T4" t="n">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="U4" t="n">
-        <v>388</v>
+        <v>346</v>
       </c>
       <c r="V4" t="n">
-        <v>529</v>
+        <v>407</v>
       </c>
       <c r="W4" t="n">
-        <v>0.733</v>
+        <v>0.85</v>
       </c>
       <c r="X4" t="n">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="Y4" t="n">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="Z4" t="n">
-        <v>327</v>
+        <v>210</v>
       </c>
       <c r="AA4" t="n">
-        <v>914</v>
+        <v>454</v>
       </c>
       <c r="AB4" t="n">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>307</v>
+        <v>213</v>
       </c>
       <c r="AE4" t="n">
-        <v>324</v>
+        <v>185</v>
       </c>
       <c r="AF4" t="n">
-        <v>1748</v>
+        <v>1465</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 175</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 81 </t>
+          <t xml:space="preserve"> 83 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -924,15 +924,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1984-85</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -946,97 +946,97 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I5" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>3089</v>
+        <v>1726</v>
       </c>
       <c r="K5" t="n">
-        <v>646</v>
+        <v>335</v>
       </c>
       <c r="L5" t="n">
-        <v>1410</v>
+        <v>797</v>
       </c>
       <c r="M5" t="n">
-        <v>0.458</v>
+        <v>0.42</v>
       </c>
       <c r="N5" t="n">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="O5" t="n">
-        <v>113</v>
+        <v>346</v>
       </c>
       <c r="P5" t="n">
-        <v>0.257</v>
+        <v>0.373</v>
       </c>
       <c r="Q5" t="n">
-        <v>617</v>
+        <v>206</v>
       </c>
       <c r="R5" t="n">
-        <v>1297</v>
+        <v>451</v>
       </c>
       <c r="S5" t="n">
-        <v>0.476</v>
+        <v>0.457</v>
       </c>
       <c r="T5" t="n">
-        <v>0.468</v>
+        <v>0.501</v>
       </c>
       <c r="U5" t="n">
-        <v>399</v>
+        <v>302</v>
       </c>
       <c r="V5" t="n">
-        <v>493</v>
+        <v>348</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.868</v>
       </c>
       <c r="X5" t="n">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="Y5" t="n">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="Z5" t="n">
-        <v>361</v>
+        <v>153</v>
       </c>
       <c r="AA5" t="n">
-        <v>1123</v>
+        <v>284</v>
       </c>
       <c r="AB5" t="n">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="AC5" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="AD5" t="n">
-        <v>302</v>
+        <v>143</v>
       </c>
       <c r="AE5" t="n">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="n">
-        <v>1720</v>
+        <v>1101</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 175</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 81 </t>
+          <t xml:space="preserve"> 83 </t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1048,15 +1048,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1985-86</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1070,97 +1070,97 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I6" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2790</v>
+        <v>1181</v>
       </c>
       <c r="K6" t="n">
-        <v>609</v>
+        <v>218</v>
       </c>
       <c r="L6" t="n">
-        <v>1248</v>
+        <v>512</v>
       </c>
       <c r="M6" t="n">
-        <v>0.488</v>
+        <v>0.426</v>
       </c>
       <c r="N6" t="n">
+        <v>81</v>
+      </c>
+      <c r="O6" t="n">
+        <v>207</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>137</v>
+      </c>
+      <c r="R6" t="n">
+        <v>305</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="U6" t="n">
+        <v>184</v>
+      </c>
+      <c r="V6" t="n">
+        <v>211</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="X6" t="n">
         <v>26</v>
       </c>
-      <c r="O6" t="n">
-        <v>84</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>583</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1164</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.501</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="U6" t="n">
-        <v>365</v>
-      </c>
-      <c r="V6" t="n">
-        <v>462</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>83</v>
       </c>
-      <c r="Y6" t="n">
-        <v>194</v>
-      </c>
       <c r="Z6" t="n">
-        <v>277</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="n">
-        <v>830</v>
+        <v>171</v>
       </c>
       <c r="AB6" t="n">
-        <v>171</v>
+        <v>45</v>
       </c>
       <c r="AC6" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="AD6" t="n">
-        <v>289</v>
+        <v>89</v>
       </c>
       <c r="AE6" t="n">
-        <v>245</v>
+        <v>105</v>
       </c>
       <c r="AF6" t="n">
-        <v>1609</v>
+        <v>701</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 175</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 81 </t>
+          <t xml:space="preserve"> 83 </t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1986-87</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1194,97 +1194,97 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I7" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3013</v>
+        <v>545</v>
       </c>
       <c r="K7" t="n">
-        <v>626</v>
+        <v>117</v>
       </c>
       <c r="L7" t="n">
-        <v>1353</v>
+        <v>285</v>
       </c>
       <c r="M7" t="n">
-        <v>0.463</v>
+        <v>0.411</v>
       </c>
       <c r="N7" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="O7" t="n">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="P7" t="n">
-        <v>0.194</v>
+        <v>0.345</v>
       </c>
       <c r="Q7" t="n">
-        <v>607</v>
+        <v>69</v>
       </c>
       <c r="R7" t="n">
-        <v>1255</v>
+        <v>146</v>
       </c>
       <c r="S7" t="n">
-        <v>0.484</v>
+        <v>0.473</v>
       </c>
       <c r="T7" t="n">
-        <v>0.47</v>
+        <v>0.495</v>
       </c>
       <c r="U7" t="n">
+        <v>118</v>
+      </c>
+      <c r="V7" t="n">
+        <v>137</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>113</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>54</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF7" t="n">
         <v>400</v>
       </c>
-      <c r="V7" t="n">
-        <v>521</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.768</v>
-      </c>
-      <c r="X7" t="n">
-        <v>82</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>237</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>319</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>813</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>153</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>343</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>251</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1671</v>
-      </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 175</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 81 </t>
+          <t xml:space="preserve"> 83 </t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1987-88</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1318,97 +1318,97 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J8" t="n">
-        <v>2927</v>
+        <v>2644</v>
       </c>
       <c r="K8" t="n">
-        <v>621</v>
+        <v>591</v>
       </c>
       <c r="L8" t="n">
-        <v>1341</v>
+        <v>1382</v>
       </c>
       <c r="M8" t="n">
-        <v>0.463</v>
+        <v>0.428</v>
       </c>
       <c r="N8" t="n">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="O8" t="n">
-        <v>97</v>
+        <v>465</v>
       </c>
       <c r="P8" t="n">
-        <v>0.309</v>
+        <v>0.359</v>
       </c>
       <c r="Q8" t="n">
-        <v>591</v>
+        <v>424</v>
       </c>
       <c r="R8" t="n">
-        <v>1244</v>
+        <v>917</v>
       </c>
       <c r="S8" t="n">
-        <v>0.475</v>
+        <v>0.462</v>
       </c>
       <c r="T8" t="n">
-        <v>0.474</v>
+        <v>0.488</v>
       </c>
       <c r="U8" t="n">
-        <v>305</v>
+        <v>474</v>
       </c>
       <c r="V8" t="n">
-        <v>394</v>
+        <v>544</v>
       </c>
       <c r="W8" t="n">
-        <v>0.774</v>
+        <v>0.871</v>
       </c>
       <c r="X8" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="Y8" t="n">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="Z8" t="n">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="AA8" t="n">
-        <v>678</v>
+        <v>509</v>
       </c>
       <c r="AB8" t="n">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="AC8" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="AE8" t="n">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="AF8" t="n">
-        <v>1577</v>
+        <v>1823</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 175</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 81 </t>
+          <t xml:space="preserve"> 83 </t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1988-89</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1442,97 +1442,97 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I9" t="n">
         <v>76</v>
       </c>
       <c r="J9" t="n">
-        <v>2924</v>
+        <v>2569</v>
       </c>
       <c r="K9" t="n">
-        <v>569</v>
+        <v>682</v>
       </c>
       <c r="L9" t="n">
-        <v>1227</v>
+        <v>1473</v>
       </c>
       <c r="M9" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="N9" t="n">
-        <v>33</v>
+        <v>245</v>
       </c>
       <c r="O9" t="n">
-        <v>121</v>
+        <v>646</v>
       </c>
       <c r="P9" t="n">
-        <v>0.273</v>
+        <v>0.379</v>
       </c>
       <c r="Q9" t="n">
-        <v>536</v>
+        <v>437</v>
       </c>
       <c r="R9" t="n">
-        <v>1106</v>
+        <v>827</v>
       </c>
       <c r="S9" t="n">
-        <v>0.485</v>
+        <v>0.528</v>
       </c>
       <c r="T9" t="n">
-        <v>0.477</v>
+        <v>0.546</v>
       </c>
       <c r="U9" t="n">
-        <v>287</v>
+        <v>590</v>
       </c>
       <c r="V9" t="n">
-        <v>351</v>
+        <v>649</v>
       </c>
       <c r="W9" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X9" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Y9" t="n">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z9" t="n">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="AA9" t="n">
-        <v>663</v>
+        <v>448</v>
       </c>
       <c r="AB9" t="n">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="AC9" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="AE9" t="n">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="AF9" t="n">
-        <v>1458</v>
+        <v>2199</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 175</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 81 </t>
+          <t xml:space="preserve"> 83 </t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1989-90</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1566,97 +1566,97 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="I10" t="n">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>2993</v>
+        <v>862</v>
       </c>
       <c r="K10" t="n">
-        <v>579</v>
+        <v>157</v>
       </c>
       <c r="L10" t="n">
-        <v>1322</v>
+        <v>421</v>
       </c>
       <c r="M10" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="N10" t="n">
+        <v>55</v>
+      </c>
+      <c r="O10" t="n">
+        <v>188</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>102</v>
+      </c>
+      <c r="R10" t="n">
+        <v>233</v>
+      </c>
+      <c r="S10" t="n">
         <v>0.4379999999999999</v>
       </c>
-      <c r="N10" t="n">
-        <v>42</v>
-      </c>
-      <c r="O10" t="n">
-        <v>136</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.309</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>537</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1186</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.453</v>
-      </c>
       <c r="T10" t="n">
-        <v>0.454</v>
+        <v>0.4379999999999999</v>
       </c>
       <c r="U10" t="n">
-        <v>292</v>
+        <v>117</v>
       </c>
       <c r="V10" t="n">
-        <v>377</v>
+        <v>131</v>
       </c>
       <c r="W10" t="n">
-        <v>0.775</v>
+        <v>0.893</v>
       </c>
       <c r="X10" t="n">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="Z10" t="n">
-        <v>308</v>
+        <v>67</v>
       </c>
       <c r="AA10" t="n">
-        <v>765</v>
+        <v>153</v>
       </c>
       <c r="AB10" t="n">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="AD10" t="n">
-        <v>322</v>
+        <v>95</v>
       </c>
       <c r="AE10" t="n">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="AF10" t="n">
-        <v>1492</v>
+        <v>486</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 175</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 81 </t>
+          <t xml:space="preserve"> 83 </t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1668,15 +1668,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1990-91</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1690,97 +1690,97 @@
         </is>
       </c>
       <c r="H11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>406</v>
+      </c>
+      <c r="K11" t="n">
+        <v>70</v>
+      </c>
+      <c r="L11" t="n">
+        <v>194</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="N11" t="n">
+        <v>22</v>
+      </c>
+      <c r="O11" t="n">
+        <v>87</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="Q11" t="n">
         <v>48</v>
       </c>
-      <c r="I11" t="n">
-        <v>46</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1657</v>
-      </c>
-      <c r="K11" t="n">
-        <v>289</v>
-      </c>
-      <c r="L11" t="n">
-        <v>665</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="N11" t="n">
-        <v>19</v>
-      </c>
-      <c r="O11" t="n">
-        <v>65</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.292</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>270</v>
-      </c>
       <c r="R11" t="n">
-        <v>600</v>
+        <v>107</v>
       </c>
       <c r="S11" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="T11" t="n">
-        <v>0.449</v>
+        <v>0.418</v>
       </c>
       <c r="U11" t="n">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="V11" t="n">
-        <v>229</v>
+        <v>68</v>
       </c>
       <c r="W11" t="n">
-        <v>0.782</v>
+        <v>0.868</v>
       </c>
       <c r="X11" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y11" t="n">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="Z11" t="n">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="AA11" t="n">
-        <v>446</v>
+        <v>68</v>
       </c>
       <c r="AB11" t="n">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="AE11" t="n">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="AF11" t="n">
-        <v>776</v>
+        <v>221</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 175</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 81 </t>
+          <t xml:space="preserve"> 83 </t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AJ11" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -1792,15 +1792,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1991-92</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1814,97 +1814,97 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I12" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2918</v>
+        <v>456</v>
       </c>
       <c r="K12" t="n">
-        <v>564</v>
+        <v>87</v>
       </c>
       <c r="L12" t="n">
-        <v>1264</v>
+        <v>227</v>
       </c>
       <c r="M12" t="n">
-        <v>0.446</v>
+        <v>0.383</v>
       </c>
       <c r="N12" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="O12" t="n">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="P12" t="n">
-        <v>0.291</v>
+        <v>0.327</v>
       </c>
       <c r="Q12" t="n">
-        <v>539</v>
+        <v>54</v>
       </c>
       <c r="R12" t="n">
-        <v>1178</v>
+        <v>126</v>
       </c>
       <c r="S12" t="n">
-        <v>0.458</v>
+        <v>0.429</v>
       </c>
       <c r="T12" t="n">
         <v>0.456</v>
       </c>
       <c r="U12" t="n">
-        <v>292</v>
+        <v>58</v>
       </c>
       <c r="V12" t="n">
-        <v>378</v>
+        <v>63</v>
       </c>
       <c r="W12" t="n">
-        <v>0.772</v>
+        <v>0.9209999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="Z12" t="n">
-        <v>247</v>
+        <v>36</v>
       </c>
       <c r="AA12" t="n">
-        <v>560</v>
+        <v>85</v>
       </c>
       <c r="AB12" t="n">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AD12" t="n">
-        <v>252</v>
+        <v>54</v>
       </c>
       <c r="AE12" t="n">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="AF12" t="n">
-        <v>1445</v>
+        <v>265</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 175</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 81 </t>
+          <t xml:space="preserve"> 83 </t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AJ12" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1916,15 +1916,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1992-93</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1934,101 +1934,101 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2922</v>
+        <v>181</v>
       </c>
       <c r="K13" t="n">
-        <v>526</v>
+        <v>34</v>
       </c>
       <c r="L13" t="n">
-        <v>1258</v>
+        <v>99</v>
       </c>
       <c r="M13" t="n">
-        <v>0.418</v>
+        <v>0.343</v>
       </c>
       <c r="N13" t="n">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="P13" t="n">
-        <v>0.308</v>
+        <v>0.279</v>
       </c>
       <c r="Q13" t="n">
-        <v>465</v>
+        <v>22</v>
       </c>
       <c r="R13" t="n">
-        <v>1060</v>
+        <v>56</v>
       </c>
       <c r="S13" t="n">
-        <v>0.439</v>
+        <v>0.393</v>
       </c>
       <c r="T13" t="n">
-        <v>0.442</v>
+        <v>0.404</v>
       </c>
       <c r="U13" t="n">
-        <v>278</v>
+        <v>17</v>
       </c>
       <c r="V13" t="n">
-        <v>377</v>
+        <v>27</v>
       </c>
       <c r="W13" t="n">
-        <v>0.737</v>
+        <v>0.63</v>
       </c>
       <c r="X13" t="n">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="Y13" t="n">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="Z13" t="n">
-        <v>232</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>671</v>
+        <v>23</v>
       </c>
       <c r="AB13" t="n">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="AC13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="n">
         <v>18</v>
       </c>
-      <c r="AD13" t="n">
-        <v>284</v>
-      </c>
       <c r="AE13" t="n">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>1391</v>
+        <v>97</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 175</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 81 </t>
+          <t xml:space="preserve"> 83 </t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AJ13" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -2040,15 +2040,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1993-94</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2062,97 +2062,97 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>1750</v>
+        <v>245</v>
       </c>
       <c r="K14" t="n">
-        <v>318</v>
+        <v>51</v>
       </c>
       <c r="L14" t="n">
-        <v>763</v>
+        <v>115</v>
       </c>
       <c r="M14" t="n">
+        <v>0.4429999999999999</v>
+      </c>
+      <c r="N14" t="n">
+        <v>20</v>
+      </c>
+      <c r="O14" t="n">
+        <v>48</v>
+      </c>
+      <c r="P14" t="n">
         <v>0.417</v>
       </c>
-      <c r="N14" t="n">
-        <v>39</v>
-      </c>
-      <c r="O14" t="n">
-        <v>126</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.31</v>
-      </c>
       <c r="Q14" t="n">
-        <v>279</v>
+        <v>31</v>
       </c>
       <c r="R14" t="n">
-        <v>637</v>
+        <v>67</v>
       </c>
       <c r="S14" t="n">
-        <v>0.4379999999999999</v>
+        <v>0.463</v>
       </c>
       <c r="T14" t="n">
-        <v>0.442</v>
+        <v>0.53</v>
       </c>
       <c r="U14" t="n">
-        <v>181</v>
+        <v>9</v>
       </c>
       <c r="V14" t="n">
-        <v>258</v>
+        <v>10</v>
       </c>
       <c r="W14" t="n">
-        <v>0.7020000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="X14" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>159</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>399</v>
+        <v>60</v>
       </c>
       <c r="AB14" t="n">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="AC14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD14" t="n">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
-        <v>856</v>
+        <v>131</v>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 175</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 81 </t>
+          <t xml:space="preserve"> 83 </t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AJ14" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -2180,97 +2180,97 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>979</v>
+        <v>495</v>
       </c>
       <c r="I15" t="n">
-        <v>971</v>
+        <v>331</v>
       </c>
       <c r="J15" t="n">
-        <v>35516</v>
+        <v>14502</v>
       </c>
       <c r="K15" t="n">
-        <v>7194</v>
+        <v>2968</v>
       </c>
       <c r="L15" t="n">
-        <v>15904</v>
+        <v>6786</v>
       </c>
       <c r="M15" t="n">
-        <v>0.452</v>
+        <v>0.4370000000000001</v>
       </c>
       <c r="N15" t="n">
-        <v>398</v>
+        <v>953</v>
       </c>
       <c r="O15" t="n">
-        <v>1373</v>
+        <v>2640</v>
       </c>
       <c r="P15" t="n">
-        <v>0.29</v>
+        <v>0.361</v>
       </c>
       <c r="Q15" t="n">
-        <v>6796</v>
+        <v>2015</v>
       </c>
       <c r="R15" t="n">
-        <v>14531</v>
+        <v>4146</v>
       </c>
       <c r="S15" t="n">
-        <v>0.468</v>
+        <v>0.486</v>
       </c>
       <c r="T15" t="n">
-        <v>0.465</v>
+        <v>0.508</v>
       </c>
       <c r="U15" t="n">
-        <v>4036</v>
+        <v>2262</v>
       </c>
       <c r="V15" t="n">
-        <v>5316</v>
+        <v>2588</v>
       </c>
       <c r="W15" t="n">
-        <v>0.759</v>
+        <v>0.8740000000000001</v>
       </c>
       <c r="X15" t="n">
-        <v>951</v>
+        <v>269</v>
       </c>
       <c r="Y15" t="n">
-        <v>2527</v>
+        <v>966</v>
       </c>
       <c r="Z15" t="n">
-        <v>3478</v>
+        <v>1235</v>
       </c>
       <c r="AA15" t="n">
-        <v>9061</v>
+        <v>2513</v>
       </c>
       <c r="AB15" t="n">
-        <v>1861</v>
+        <v>456</v>
       </c>
       <c r="AC15" t="n">
-        <v>249</v>
+        <v>52</v>
       </c>
       <c r="AD15" t="n">
-        <v>3682</v>
+        <v>1164</v>
       </c>
       <c r="AE15" t="n">
-        <v>2971</v>
+        <v>1049</v>
       </c>
       <c r="AF15" t="n">
-        <v>18822</v>
+        <v>9151</v>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 175</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 81 </t>
+          <t xml:space="preserve"> 83 </t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Right</t>
+          <t>Left</t>
         </is>
       </c>
       <c r="AJ15" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
